--- a/dev-clean-results.xlsx
+++ b/dev-clean-results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code\Corpus\Libri-recogNsynth\dev-clean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51AB0FAA-969F-4FB0-B48F-0F27DC7AD2D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1EBFD2-E523-4FC2-869B-9E877D5CA87B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="570" yWindow="1350" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -166,6 +166,22 @@
     <t>PCC btw MOS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Tacotron2 Score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tacotron2 Rank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -191,15 +207,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -216,17 +238,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1239,7 +1276,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Libri!$H$1</c:f>
+              <c:f>Libri!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1318,9 +1355,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Libri!$H$2:$H$13</c:f>
+              <c:f>Libri!$I$2:$I$13</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -2711,7 +2748,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9305192" cy="6073205"/>
+    <xdr:ext cx="9303297" cy="6076293"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1">
@@ -3007,7 +3044,7 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3018,12 +3055,16 @@
     <col min="5" max="5" width="12.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="15.5" customWidth="1"/>
-    <col min="13" max="13" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.625" customWidth="1"/>
+    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3046,22 +3087,28 @@
         <v>27</v>
       </c>
       <c r="H1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>25</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>30</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3081,71 +3128,85 @@
         <v>4.0541</v>
       </c>
       <c r="G2" s="1">
-        <v>3.4161999999999901</v>
-      </c>
-      <c r="H2">
+        <v>3.41615</v>
+      </c>
+      <c r="H2" s="1">
+        <v>3.01</v>
+      </c>
+      <c r="I2" s="10">
         <v>0</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <f>_xlfn.RANK.AVG(E2, $E$2:$E$13)</f>
         <v>8</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <f>_xlfn.RANK.AVG(F2, F$2:F$13)</f>
         <v>5</v>
       </c>
-      <c r="K2">
-        <f>_xlfn.RANK.AVG(G2, G$2:G$13)</f>
+      <c r="L2">
+        <f xml:space="preserve"> _xlfn.RANK.AVG(G2, G$2:G$13)</f>
         <v>3</v>
       </c>
-      <c r="L2">
-        <f>_xlfn.RANK.AVG(H2, H$2:H$13, 1)</f>
+      <c r="M2">
+        <f xml:space="preserve"> _xlfn.RANK.AVG(H2, H$2:H$13)</f>
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <f>_xlfn.RANK.AVG(I2, I$2:I$13, 1)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="7">
         <v>1.7361111111111112E-4</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="8">
         <v>4.1289999999999996</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="8">
         <v>4.1790999999999903</v>
       </c>
-      <c r="G3" s="1">
-        <v>3.2494999999999998</v>
-      </c>
-      <c r="H3">
+      <c r="G3" s="8">
+        <v>3.2493500000000002</v>
+      </c>
+      <c r="H3" s="8">
+        <v>2.9409999999999998</v>
+      </c>
+      <c r="I3" s="11">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I13" si="0">_xlfn.RANK.AVG(E3, $E$2:$E$13)</f>
+      <c r="J3" s="6">
+        <f>_xlfn.RANK.AVG(E3, $E$2:$E$13)</f>
         <v>1</v>
       </c>
-      <c r="J3">
+      <c r="K3" s="6">
         <f>_xlfn.RANK.AVG(F3, F$2:$F$13)</f>
         <v>3</v>
       </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K13" si="1">_xlfn.RANK.AVG(G3, G$2:G$13)</f>
+      <c r="L3">
+        <f xml:space="preserve"> _xlfn.RANK.AVG(G3, G$2:G$13)</f>
         <v>8</v>
       </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L13" si="2">_xlfn.RANK.AVG(H3, H$2:H$13, 1)</f>
+      <c r="M3">
+        <f t="shared" ref="M3:M13" si="0" xml:space="preserve"> _xlfn.RANK.AVG(H3, H$2:H$13)</f>
+        <v>2.5</v>
+      </c>
+      <c r="N3" s="6">
+        <f>_xlfn.RANK.AVG(I3, I$2:I$13, 1)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -3165,441 +3226,537 @@
         <v>4.2088000000000001</v>
       </c>
       <c r="G4" s="1">
-        <v>3.19274999999999</v>
-      </c>
-      <c r="H4">
+        <v>3.19285</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2.7919999999999998</v>
+      </c>
+      <c r="I4" s="10">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="I4">
+      <c r="J4">
+        <f>_xlfn.RANK.AVG(E4, $E$2:$E$13)</f>
+        <v>6</v>
+      </c>
+      <c r="K4">
+        <f>_xlfn.RANK.AVG(F4, F$2:$F$13)</f>
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <f xml:space="preserve"> _xlfn.RANK.AVG(G4, G$2:G$13)</f>
+        <v>9</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="N4">
+        <f>_xlfn.RANK.AVG(I4, I$2:I$13, 1)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1.7361111111111112E-4</v>
+      </c>
+      <c r="E5" s="5">
+        <v>3.4169999999999998</v>
+      </c>
+      <c r="F5" s="5">
+        <v>3.6629499999999999</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2.9025500000000002</v>
+      </c>
+      <c r="H5" s="5">
+        <v>2.7509999999999999</v>
+      </c>
+      <c r="I5" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="J5">
+        <f>_xlfn.RANK.AVG(E5, $E$2:$E$13)</f>
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <f>_xlfn.RANK.AVG(F5, F$2:$F$13)</f>
+        <v>11</v>
+      </c>
+      <c r="L5">
+        <f xml:space="preserve"> _xlfn.RANK.AVG(G5, G$2:G$13)</f>
+        <v>12</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="N5">
+        <f>_xlfn.RANK.AVG(I5, I$2:I$13, 1)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2">
+        <v>8.1018518518518516E-5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2.8580000000000001</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3.9104000000000001</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3.5026000000000002</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2.9260000000000002</v>
+      </c>
+      <c r="I6" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="J6">
+        <f>_xlfn.RANK.AVG(E6, $E$2:$E$13)</f>
+        <v>11</v>
+      </c>
+      <c r="K6">
+        <f>_xlfn.RANK.AVG(F6, F$2:$F$13)</f>
+        <v>7</v>
+      </c>
+      <c r="L6">
+        <f xml:space="preserve"> _xlfn.RANK.AVG(G6, G$2:G$13)</f>
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="N6">
+        <f>_xlfn.RANK.AVG(I6, I$2:I$13, 1)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="7">
+        <v>4.6296296296296294E-5</v>
+      </c>
+      <c r="E7" s="8">
+        <v>2.8239999999999998</v>
+      </c>
+      <c r="F7" s="8">
+        <v>3.8513999999999999</v>
+      </c>
+      <c r="G7" s="8">
+        <v>3.3102999999999998</v>
+      </c>
+      <c r="H7" s="8">
+        <v>2.7930000000000001</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
+        <f>_xlfn.RANK.AVG(E7, $E$2:$E$13)</f>
+        <v>12</v>
+      </c>
+      <c r="K7" s="6">
+        <f>_xlfn.RANK.AVG(F7, F$2:$F$13)</f>
+        <v>9</v>
+      </c>
+      <c r="L7">
+        <f xml:space="preserve"> _xlfn.RANK.AVG(G7, G$2:G$13)</f>
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="N7" s="6">
+        <f>_xlfn.RANK.AVG(I7, I$2:I$13, 1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1.273148148148148E-4</v>
+      </c>
+      <c r="E8" s="5">
+        <v>3.2749999999999999</v>
+      </c>
+      <c r="F8" s="5">
+        <v>3.9241000000000001</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3.2822</v>
+      </c>
+      <c r="H8" s="5">
+        <v>2.8149999999999999</v>
+      </c>
+      <c r="I8" s="10">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f>_xlfn.RANK.AVG(E8, $E$2:$E$13)</f>
+        <v>4</v>
+      </c>
+      <c r="K8">
+        <f>_xlfn.RANK.AVG(F8, F$2:$F$13)</f>
+        <v>6</v>
+      </c>
+      <c r="L8">
+        <f xml:space="preserve"> _xlfn.RANK.AVG(G8, G$2:G$13)</f>
+        <v>6</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="N8">
+        <f>_xlfn.RANK.AVG(I8, I$2:I$13, 1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2.7777777777777778E-4</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3.2909999999999999</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3.8499500000000002</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3.1540499999999998</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2.7280000000000002</v>
+      </c>
+      <c r="I9" s="10">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f>_xlfn.RANK.AVG(E9, $E$2:$E$13)</f>
+        <v>3</v>
+      </c>
+      <c r="K9">
+        <f>_xlfn.RANK.AVG(F9, F$2:$F$13)</f>
+        <v>10</v>
+      </c>
+      <c r="L9">
+        <f xml:space="preserve"> _xlfn.RANK.AVG(G9, G$2:G$13)</f>
+        <v>10</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="N9">
+        <f>_xlfn.RANK.AVG(I9, I$2:I$13, 1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2.3148148148148147E-5</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2.99</v>
+      </c>
+      <c r="F10" s="1">
+        <v>3.3016499999999902</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2.9961000000000002</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2.68</v>
+      </c>
+      <c r="I10" s="10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f>_xlfn.RANK.AVG(E10, $E$2:$E$13)</f>
+        <v>9</v>
+      </c>
+      <c r="K10">
+        <f>_xlfn.RANK.AVG(F10, F$2:$F$13)</f>
+        <v>12</v>
+      </c>
+      <c r="L10">
+        <f xml:space="preserve"> _xlfn.RANK.AVG(G10, G$2:G$13)</f>
+        <v>11</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="N10">
+        <f>_xlfn.RANK.AVG(I10, I$2:I$13, 1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="4">
+        <v>5.7870370370370373E-5</v>
+      </c>
+      <c r="E11" s="5">
+        <v>3.1160000000000001</v>
+      </c>
+      <c r="F11" s="5">
+        <v>3.9045999999999998</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3.25725</v>
+      </c>
+      <c r="H11" s="5">
+        <v>2.9329999999999998</v>
+      </c>
+      <c r="I11" s="10">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f>_xlfn.RANK.AVG(E11, $E$2:$E$13)</f>
+        <v>7</v>
+      </c>
+      <c r="K11">
+        <f>_xlfn.RANK.AVG(F11, F$2:$F$13)</f>
+        <v>8</v>
+      </c>
+      <c r="L11">
+        <f xml:space="preserve"> _xlfn.RANK.AVG(G11, G$2:G$13)</f>
+        <v>7</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N11">
+        <f>_xlfn.RANK.AVG(I11, I$2:I$13, 1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1.273148148148148E-4</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2.88</v>
+      </c>
+      <c r="F12" s="1">
+        <v>4.2085499999999998</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3.4636499999999999</v>
+      </c>
+      <c r="H12" s="1">
+        <v>2.9409999999999998</v>
+      </c>
+      <c r="I12" s="10">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f>_xlfn.RANK.AVG(E12, $E$2:$E$13)</f>
+        <v>10</v>
+      </c>
+      <c r="K12">
+        <f>_xlfn.RANK.AVG(F12, F$2:$F$13)</f>
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <f xml:space="preserve"> _xlfn.RANK.AVG(G12, G$2:G$13)</f>
+        <v>2</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="N12">
+        <f>_xlfn.RANK.AVG(I12, I$2:I$13, 1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1.7361111111111112E-4</v>
+      </c>
+      <c r="E13" s="1">
+        <v>3.2719999999999998</v>
+      </c>
+      <c r="F13" s="1">
+        <v>4.1153499999999896</v>
+      </c>
+      <c r="G13" s="1">
+        <v>3.2909000000000002</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="I13" s="10">
+        <v>2.4E-2</v>
+      </c>
+      <c r="J13">
+        <f>_xlfn.RANK.AVG(E13, $E$2:$E$13)</f>
+        <v>5</v>
+      </c>
+      <c r="K13">
+        <f>_xlfn.RANK.AVG(F13, F$2:$F$13)</f>
+        <v>4</v>
+      </c>
+      <c r="L13">
+        <f xml:space="preserve"> _xlfn.RANK.AVG(G13, G$2:G$13)</f>
+        <v>5</v>
+      </c>
+      <c r="M13">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="J4">
-        <f>_xlfn.RANK.AVG(F4, F$2:$F$13)</f>
-        <v>1</v>
-      </c>
-      <c r="K4">
+      <c r="N13">
+        <f>_xlfn.RANK.AVG(I13, I$2:I$13, 1)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8">
+        <f t="shared" ref="E14:F14" si="1">AVERAGE(E2:E13)</f>
+        <v>3.1860833333333329</v>
+      </c>
+      <c r="F14" s="8">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
+        <v>3.930912499999998</v>
+      </c>
+      <c r="G14" s="8">
+        <f>AVERAGE(G2:G13)</f>
+        <v>3.2514958333333333</v>
+      </c>
+      <c r="H14" s="8">
+        <f>AVERAGE(H2:H13)</f>
+        <v>2.8452500000000001</v>
+      </c>
+      <c r="I14" s="11">
+        <f>AVERAGE(I2:I13)</f>
+        <v>2.4000000000000004E-2</v>
+      </c>
+      <c r="M14"/>
     </row>
-    <row r="5" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1.7361111111111112E-4</v>
-      </c>
-      <c r="E5" s="5">
-        <v>3.4169999999999998</v>
-      </c>
-      <c r="F5" s="5">
-        <v>3.6629499999999999</v>
-      </c>
-      <c r="G5" s="5">
-        <v>2.90265</v>
-      </c>
-      <c r="H5">
-        <v>0.08</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J5">
-        <f>_xlfn.RANK.AVG(F5, F$2:$F$13)</f>
-        <v>11</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="1">
+        <f>MAX(E2:E13)</f>
+        <v>4.1289999999999996</v>
+      </c>
+      <c r="I15" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2">
-        <v>8.1018518518518516E-5</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2.8580000000000001</v>
-      </c>
-      <c r="F6" s="1">
-        <v>3.9104000000000001</v>
-      </c>
-      <c r="G6" s="1">
-        <v>3.5026999999999999</v>
-      </c>
-      <c r="H6">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="J6">
-        <f>_xlfn.RANK.AVG(F6, F$2:$F$13)</f>
-        <v>7</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="2">
-        <v>4.6296296296296294E-5</v>
-      </c>
-      <c r="E7" s="1">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="1">
+        <f>MIN(E2:E13)</f>
         <v>2.8239999999999998</v>
       </c>
-      <c r="F7" s="1">
-        <v>3.8513999999999999</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3.3101500000000001</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="J7">
-        <f>_xlfn.RANK.AVG(F7, F$2:$F$13)</f>
-        <v>9</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="4">
-        <v>1.273148148148148E-4</v>
-      </c>
-      <c r="E8" s="5">
-        <v>3.2749999999999999</v>
-      </c>
-      <c r="F8" s="5">
-        <v>3.9241000000000001</v>
-      </c>
-      <c r="G8" s="5">
-        <v>3.2822499999999999</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="J8">
-        <f>_xlfn.RANK.AVG(F8, F$2:$F$13)</f>
-        <v>6</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="2">
-        <v>2.7777777777777778E-4</v>
-      </c>
-      <c r="E9" s="1">
-        <v>3.2909999999999999</v>
-      </c>
-      <c r="F9" s="1">
-        <v>3.8499500000000002</v>
-      </c>
-      <c r="G9" s="1">
-        <v>3.1547499999999902</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="J9">
-        <f>_xlfn.RANK.AVG(F9, F$2:$F$13)</f>
-        <v>10</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="2">
-        <v>2.3148148148148147E-5</v>
-      </c>
-      <c r="E10" s="1">
-        <v>2.99</v>
-      </c>
-      <c r="F10" s="1">
-        <v>3.3016499999999902</v>
-      </c>
-      <c r="G10" s="1">
-        <v>2.99629999999999</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="J10">
-        <f>_xlfn.RANK.AVG(F10, F$2:$F$13)</f>
-        <v>12</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="4">
-        <v>5.7870370370370373E-5</v>
-      </c>
-      <c r="E11" s="5">
-        <v>3.1160000000000001</v>
-      </c>
-      <c r="F11" s="5">
-        <v>3.9045999999999998</v>
-      </c>
-      <c r="G11" s="5">
-        <v>3.25754999999999</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="J11">
-        <f>_xlfn.RANK.AVG(F11, F$2:$F$13)</f>
-        <v>8</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1.273148148148148E-4</v>
-      </c>
-      <c r="E12" s="1">
-        <v>2.88</v>
-      </c>
-      <c r="F12" s="1">
-        <v>4.2085499999999998</v>
-      </c>
-      <c r="G12" s="1">
-        <v>3.4632499999999999</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="J12">
-        <f>_xlfn.RANK.AVG(F12, F$2:$F$13)</f>
-        <v>2</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="2">
-        <v>1.7361111111111112E-4</v>
-      </c>
-      <c r="E13" s="1">
-        <v>3.2719999999999998</v>
-      </c>
-      <c r="F13" s="1">
-        <v>4.1153499999999896</v>
-      </c>
-      <c r="G13" s="1">
-        <v>3.2906</v>
-      </c>
-      <c r="H13">
-        <v>2.4E-2</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="J13">
-        <f>_xlfn.RANK.AVG(F13, F$2:$F$13)</f>
-        <v>4</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14">
-        <f>AVERAGE(E2:E13)</f>
-        <v>3.1860833333333329</v>
-      </c>
-      <c r="F14">
-        <f>AVERAGE(F2:F13)</f>
-        <v>3.930912499999998</v>
-      </c>
-      <c r="G14">
-        <f>AVERAGE(G2:G13)</f>
-        <v>3.2515541666666627</v>
-      </c>
-      <c r="H14">
-        <f>AVERAGE(H2:H13)</f>
-        <v>2.4000000000000004E-2</v>
-      </c>
+      <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>31</v>
       </c>
-      <c r="I17">
-        <f>CORREL(I2:I13, $L$2:$L$13)</f>
+      <c r="I17" s="1">
+        <f>CORREL(J2:J13, $N$2:$N$13)</f>
         <v>-0.31971787502550425</v>
       </c>
-      <c r="J17">
-        <f>CORREL(J2:J13, $L$2:$L$13)</f>
+      <c r="K17" s="1">
+        <f>CORREL(K2:K13, $N$2:$N$13)</f>
         <v>-0.16375793598867291</v>
       </c>
-      <c r="K17">
-        <f>CORREL(K2:K13, $L$2:$L$13)</f>
+      <c r="L17" s="1">
+        <f>CORREL(L2:L13, $N$2:$N$13)</f>
         <v>0.17155593294051447</v>
       </c>
     </row>
@@ -3607,47 +3764,46 @@
       <c r="A18" t="s">
         <v>32</v>
       </c>
-      <c r="I18">
-        <f>PEARSON(E2:E13, $H$2:$H$13)</f>
+      <c r="I18" s="1">
+        <f>PEARSON(E2:E13, $I$2:$I$13)</f>
         <v>0.26339559218739989</v>
       </c>
-      <c r="J18">
-        <f>PEARSON(F2:F13, $H$2:$H$13)</f>
+      <c r="K18" s="1">
+        <f>PEARSON(F2:F13, $I$2:$I$13)</f>
         <v>0.11110789533485733</v>
       </c>
-      <c r="K18">
-        <f>PEARSON(G2:G13, $H$2:$H$13)</f>
-        <v>-0.19073558421812414</v>
+      <c r="L18" s="1">
+        <f>PEARSON(G2:G13, $I$2:$I$13)</f>
+        <v>-0.19047470197370586</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>33</v>
       </c>
-      <c r="J19">
-        <f>CORREL(I2:I13, J2:J13)</f>
+      <c r="I19" s="1"/>
+      <c r="K19" s="1">
+        <f>CORREL(J2:J13, K2:K13)</f>
         <v>4.8951048951048966E-2</v>
       </c>
-      <c r="K19">
-        <f>CORREL(I2:I13, K2:K13)</f>
+      <c r="L19" s="1">
+        <f>CORREL(J2:J13, L2:L13)</f>
         <v>-0.63636363636363646</v>
       </c>
-      <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>34</v>
       </c>
-      <c r="J20">
+      <c r="K20" s="1">
         <f>PEARSON(E2:E13,F2:F13)</f>
         <v>0.22415153850064751</v>
       </c>
-      <c r="K20">
+      <c r="L20" s="1">
         <f>PEARSON(E2:E13,G2:G13)</f>
-        <v>-0.33754880805818588</v>
-      </c>
-      <c r="M20" s="1"/>
+        <v>-0.3377648813415749</v>
+      </c>
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
